--- a/深圳签订外贸合同数据预测/out_file/out_excel/中国香港、澳门的未来20年合同签订项数量预测.xlsx
+++ b/深圳签订外贸合同数据预测/out_file/out_excel/中国香港、澳门的未来20年合同签订项数量预测.xlsx
@@ -451,162 +451,162 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>5267</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="B3" t="n">
-        <v>4851</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46023</v>
+        <v>45658</v>
       </c>
       <c r="B4" t="n">
-        <v>4989</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46388</v>
+        <v>46023</v>
       </c>
       <c r="B5" t="n">
-        <v>5121</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46753</v>
+        <v>46388</v>
       </c>
       <c r="B6" t="n">
-        <v>5253</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>47119</v>
+        <v>46753</v>
       </c>
       <c r="B7" t="n">
-        <v>5385</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>47484</v>
+        <v>47119</v>
       </c>
       <c r="B8" t="n">
-        <v>5517</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>47849</v>
+        <v>47484</v>
       </c>
       <c r="B9" t="n">
-        <v>5648</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>48214</v>
+        <v>47849</v>
       </c>
       <c r="B10" t="n">
-        <v>5780</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>48580</v>
+        <v>48214</v>
       </c>
       <c r="B11" t="n">
-        <v>5912</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>48945</v>
+        <v>48580</v>
       </c>
       <c r="B12" t="n">
-        <v>6044</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>49310</v>
+        <v>48945</v>
       </c>
       <c r="B13" t="n">
-        <v>6176</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>49675</v>
+        <v>49310</v>
       </c>
       <c r="B14" t="n">
-        <v>6308</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>50041</v>
+        <v>49675</v>
       </c>
       <c r="B15" t="n">
-        <v>6440</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>50406</v>
+        <v>50041</v>
       </c>
       <c r="B16" t="n">
-        <v>6572</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>50771</v>
+        <v>50406</v>
       </c>
       <c r="B17" t="n">
-        <v>6704</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>51136</v>
+        <v>50771</v>
       </c>
       <c r="B18" t="n">
-        <v>6836</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>51502</v>
+        <v>51136</v>
       </c>
       <c r="B19" t="n">
-        <v>6967</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>51867</v>
+        <v>51502</v>
       </c>
       <c r="B20" t="n">
-        <v>7099</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>52232</v>
+        <v>51867</v>
       </c>
       <c r="B21" t="n">
-        <v>7231</v>
+        <v>2968</v>
       </c>
     </row>
   </sheetData>
